--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-16.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H603"/>
+  <dimension ref="A1:H582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13723,10 +13723,8 @@
           <t>4.9%</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H411" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -13757,10 +13755,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="413">
@@ -13791,10 +13787,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="414">
@@ -13825,10 +13819,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -13859,10 +13851,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="416">
@@ -13897,10 +13887,8 @@
           <t>6.8%</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H416" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -13935,10 +13923,8 @@
           <t>11.0K</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -13969,10 +13955,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H418" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="419">
@@ -14003,10 +13987,8 @@
           <t>1K</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -14037,10 +14019,8 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -14071,10 +14051,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="422">
@@ -14109,10 +14087,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -14147,10 +14123,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H423" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -14185,10 +14159,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H424" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -14223,10 +14195,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -14261,10 +14231,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H426" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -14295,10 +14263,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H427" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -14333,10 +14299,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -14367,10 +14331,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -14401,10 +14363,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -14439,10 +14399,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -14473,10 +14431,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -14507,10 +14463,8 @@
           <t>€22.5B</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -14545,10 +14499,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H434" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -14579,10 +14531,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -14613,10 +14563,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -14647,10 +14595,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -14681,10 +14627,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -14707,10 +14651,8 @@
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr"/>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -14737,10 +14679,8 @@
       </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr"/>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -14767,10 +14707,8 @@
       </c>
       <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr"/>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -14793,10 +14731,8 @@
       </c>
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr"/>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -14823,10 +14759,8 @@
           <t>4.7%</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="444">
@@ -14853,10 +14787,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="445">
@@ -14883,10 +14815,8 @@
         </is>
       </c>
       <c r="G445" t="inlineStr"/>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="446">
@@ -14913,10 +14843,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="447">
@@ -14943,10 +14871,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -14995,10 +14921,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H449" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -15029,10 +14953,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -15067,10 +14989,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H451" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="452">
@@ -15101,10 +15021,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H452" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -15131,10 +15049,8 @@
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H453" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -15161,30 +15077,44 @@
       </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H454" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr"/>
-      <c r="C455" t="inlineStr"/>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementDEC</t>
+        </is>
+      </c>
       <c r="D455" t="inlineStr"/>
-      <c r="E455" t="inlineStr"/>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>$-367B</t>
+        </is>
+      </c>
       <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr"/>
-      <c r="H455" t="inlineStr"/>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -15194,31 +15124,27 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G456" t="inlineStr"/>
       <c r="H456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -15228,36 +15154,32 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15268,41 +15190,49 @@
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr"/>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr"/>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H459" t="inlineStr">
         <is>
           <t>3</t>
@@ -15312,23 +15242,23 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
@@ -15342,65 +15272,57 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
+      <c r="G461" t="inlineStr"/>
       <c r="H461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
           <t>3</t>
@@ -15410,23 +15332,31 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr"/>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15436,23 +15366,31 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
-      <c r="E464" t="inlineStr"/>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr"/>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H464" t="inlineStr">
         <is>
           <t>3</t>
@@ -15462,17 +15400,17 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
@@ -15488,31 +15426,23 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E466" t="inlineStr"/>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
         <is>
           <t>3</t>
@@ -15522,23 +15452,31 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
-      <c r="E467" t="inlineStr"/>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H467" t="inlineStr">
         <is>
           <t>3</t>
@@ -15548,23 +15486,31 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
-      <c r="E468" t="inlineStr"/>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr"/>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H468" t="inlineStr">
         <is>
           <t>3</t>
@@ -15574,27 +15520,31 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr"/>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H469" t="inlineStr">
         <is>
           <t>3</t>
@@ -15604,23 +15554,23 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F470" t="inlineStr"/>
@@ -15634,49 +15584,53 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr"/>
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
@@ -15688,23 +15642,23 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr"/>
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>-15.4%</t>
-        </is>
-      </c>
+      <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
@@ -15714,23 +15668,23 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr"/>
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
-      <c r="E474" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
+      <c r="E474" t="inlineStr"/>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
@@ -15740,29 +15694,29 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr"/>
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
+      <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
           <t>3</t>
@@ -15770,21 +15724,25 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr"/>
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
@@ -15798,21 +15756,41 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr"/>
-      <c r="C477" t="inlineStr"/>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
       <c r="D477" t="inlineStr"/>
-      <c r="E477" t="inlineStr"/>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
       <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr"/>
-      <c r="H477" t="inlineStr"/>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -15822,145 +15800,149 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr"/>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
       <c r="H479" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr"/>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr">
         <is>
-          <t>¥1990.0B</t>
+          <t>146.4</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G482" t="inlineStr"/>
       <c r="H482" t="inlineStr">
         <is>
           <t>3</t>
@@ -15970,23 +15952,23 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
@@ -16000,27 +15982,31 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr"/>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H484" t="inlineStr">
         <is>
           <t>3</t>
@@ -16030,25 +16016,21 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
-      <c r="E485" t="inlineStr">
-        <is>
-          <t>0.734%</t>
-        </is>
-      </c>
+      <c r="E485" t="inlineStr"/>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr">
@@ -16060,31 +16042,27 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G486" t="inlineStr"/>
       <c r="H486" t="inlineStr">
         <is>
           <t>3</t>
@@ -16092,33 +16070,25 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A487" t="inlineStr"/>
       <c r="B487" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G487" t="inlineStr"/>
       <c r="H487" t="inlineStr">
         <is>
           <t>3</t>
@@ -16128,49 +16098,45 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="inlineStr"/>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr"/>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr"/>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
       <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
@@ -16180,29 +16146,29 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr">
         <is>
-          <t>10.2%</t>
+          <t>116.0%</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
@@ -16214,29 +16180,29 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
       <c r="E491" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
@@ -16248,29 +16214,29 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
@@ -16282,57 +16248,57 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>€-157.39B</t>
-        </is>
-      </c>
+      <c r="E493" t="inlineStr"/>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
       <c r="H493" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
       <c r="E494" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr"/>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>$ 2.8B</t>
+        </is>
+      </c>
       <c r="H494" t="inlineStr">
         <is>
           <t>2</t>
@@ -16342,23 +16308,23 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
@@ -16372,21 +16338,25 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
-      <c r="E496" t="inlineStr"/>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="inlineStr">
@@ -16398,21 +16368,25 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
-      <c r="E497" t="inlineStr"/>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr"/>
       <c r="H497" t="inlineStr">
@@ -16424,27 +16398,31 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr"/>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H498" t="inlineStr">
         <is>
           <t>3</t>
@@ -16454,7 +16432,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -16464,83 +16442,87 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr"/>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>101.7</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
@@ -16552,27 +16534,31 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr"/>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H502" t="inlineStr">
         <is>
           <t>2</t>
@@ -16582,63 +16568,63 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr">
         <is>
-          <t>146.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
@@ -16650,27 +16636,31 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr"/>
+      <c r="G505" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr"/>
       <c r="H505" t="inlineStr">
         <is>
           <t>3</t>
@@ -16680,27 +16670,31 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr"/>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H506" t="inlineStr">
         <is>
           <t>3</t>
@@ -16710,29 +16704,29 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
@@ -16744,23 +16738,31 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Input YoYDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
-      <c r="E508" t="inlineStr"/>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr"/>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="H508" t="inlineStr">
         <is>
           <t>3</t>
@@ -16770,27 +16772,31 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>08:35 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Output MoMDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
-      <c r="G509" t="inlineStr"/>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H509" t="inlineStr">
         <is>
           <t>3</t>
@@ -16798,25 +16804,33 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr"/>
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>PPI Output YoYDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr"/>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H510" t="inlineStr">
         <is>
           <t>3</t>
@@ -16826,43 +16840,59 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr"/>
-      <c r="C511" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Retail Price Index MoMDEC</t>
+        </is>
+      </c>
       <c r="D511" t="inlineStr"/>
-      <c r="E511" t="inlineStr"/>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr"/>
-      <c r="H511" t="inlineStr"/>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
       <c r="E512" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
@@ -16874,99 +16904,95 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr">
         <is>
-          <t>116.0%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
       <c r="E514" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+      <c r="G515" t="inlineStr"/>
       <c r="H515" t="inlineStr">
         <is>
           <t>3</t>
@@ -16976,87 +17002,99 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
-      <c r="E516" t="inlineStr"/>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr"/>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
       <c r="E517" t="inlineStr">
         <is>
-          <t>$4.42B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>$ 2.8B</t>
-        </is>
-      </c>
+      <c r="G517" t="inlineStr"/>
       <c r="H517" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>9.14%</t>
-        </is>
-      </c>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H518" t="inlineStr">
         <is>
           <t>3</t>
@@ -17066,27 +17104,35 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H519" t="inlineStr">
         <is>
           <t>3</t>
@@ -17096,27 +17142,35 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Machine Tool Orders YoYDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H520" t="inlineStr">
         <is>
           <t>3</t>
@@ -17126,29 +17180,29 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>WPI Inflation YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H521" t="inlineStr">
@@ -17160,7 +17214,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -17170,55 +17224,51 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Wholesale Prices MoMDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G523" t="inlineStr"/>
       <c r="H523" t="inlineStr">
         <is>
           <t>2</t>
@@ -17228,41 +17278,37 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G524" t="inlineStr"/>
       <c r="H524" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -17272,89 +17318,77 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>10-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.332%</t>
         </is>
       </c>
       <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G525" t="inlineStr"/>
       <c r="H525" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>30-Year Bund Auction</t>
         </is>
       </c>
       <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.55%</t>
         </is>
       </c>
       <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G526" t="inlineStr"/>
       <c r="H526" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Gross Fixed Investment MoMOCT</t>
         </is>
       </c>
       <c r="D527" t="inlineStr"/>
       <c r="E527" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G527" t="inlineStr"/>
       <c r="H527" t="inlineStr">
         <is>
           <t>3</t>
@@ -17364,31 +17398,27 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>PPI Core Output MoMDEC</t>
+          <t>Gross Fixed Investment YoYOCT</t>
         </is>
       </c>
       <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-3.3%</t>
         </is>
       </c>
       <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G528" t="inlineStr"/>
       <c r="H528" t="inlineStr">
         <is>
           <t>3</t>
@@ -17398,65 +17428,49 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>PPI Core Output YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/10</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
-      <c r="E529" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E529" t="inlineStr"/>
       <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="G529" t="inlineStr"/>
       <c r="H529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>PPI Input MoMDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/10</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="G530" t="inlineStr"/>
       <c r="H530" t="inlineStr">
         <is>
           <t>3</t>
@@ -17466,31 +17480,23 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>PPI Input YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/10</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="G531" t="inlineStr"/>
       <c r="H531" t="inlineStr">
         <is>
           <t>3</t>
@@ -17500,31 +17506,23 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>PPI Output MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/10</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
-      <c r="E532" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E532" t="inlineStr"/>
       <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G532" t="inlineStr"/>
       <c r="H532" t="inlineStr">
         <is>
           <t>3</t>
@@ -17534,31 +17532,23 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>PPI Output YoYDEC</t>
+          <t>MBA Purchase IndexJAN/10</t>
         </is>
       </c>
       <c r="D533" t="inlineStr"/>
-      <c r="E533" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
+      <c r="E533" t="inlineStr"/>
       <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G533" t="inlineStr"/>
       <c r="H533" t="inlineStr">
         <is>
           <t>3</t>
@@ -17568,27 +17558,31 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Retail Price Index MoMDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D534" t="inlineStr"/>
       <c r="E534" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$616.5B</t>
         </is>
       </c>
       <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr"/>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>$628.0B</t>
+        </is>
+      </c>
       <c r="H534" t="inlineStr">
         <is>
           <t>3</t>
@@ -17598,29 +17592,33 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Retail Price Index YoYDEC</t>
+          <t>Manufacturing Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
       <c r="E535" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F535" t="inlineStr"/>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
@@ -17632,369 +17630,349 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>New Motor Vehicle SalesNOV</t>
         </is>
       </c>
       <c r="D536" t="inlineStr"/>
       <c r="E536" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>163.6K</t>
         </is>
       </c>
       <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G536" t="inlineStr"/>
       <c r="H536" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Wholesale Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F537" t="inlineStr"/>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr"/>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D539" t="inlineStr"/>
       <c r="E539" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D540" t="inlineStr"/>
       <c r="E540" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr"/>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F541" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>CPIDEC</t>
         </is>
       </c>
       <c r="D542" t="inlineStr"/>
       <c r="E542" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F542" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>315.49</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>313.8</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>CPI s.aDEC</t>
         </is>
       </c>
       <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F543" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+          <t>316.441</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>317.4</t>
         </is>
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>NY Empire State Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G544" t="inlineStr"/>
       <c r="H544" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E545" t="inlineStr"/>
       <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="G545" t="inlineStr"/>
       <c r="H545" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>EIA Gasoline Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D546" t="inlineStr"/>
-      <c r="E546" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E546" t="inlineStr"/>
       <c r="F546" t="inlineStr"/>
       <c r="G546" t="inlineStr"/>
       <c r="H546" t="inlineStr">
@@ -18006,25 +17984,21 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>EIA Crude Oil Imports ChangeJAN/10</t>
         </is>
       </c>
       <c r="D547" t="inlineStr"/>
-      <c r="E547" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
       <c r="G547" t="inlineStr"/>
       <c r="H547" t="inlineStr">
@@ -18036,25 +18010,21 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>10-Year Treasury Gilt Auction</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
-      <c r="E548" t="inlineStr">
-        <is>
-          <t>4.332%</t>
-        </is>
-      </c>
+      <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr"/>
       <c r="H548" t="inlineStr">
@@ -18066,25 +18036,21 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>30-Year Bund Auction</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
-      <c r="E549" t="inlineStr">
-        <is>
-          <t>2.55%</t>
-        </is>
-      </c>
+      <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr"/>
       <c r="H549" t="inlineStr">
@@ -18096,25 +18062,21 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMOCT</t>
+          <t>EIA Distillate Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D550" t="inlineStr"/>
-      <c r="E550" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
+      <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
       <c r="G550" t="inlineStr"/>
       <c r="H550" t="inlineStr">
@@ -18126,25 +18088,21 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYOCT</t>
+          <t>EIA Gasoline Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D551" t="inlineStr"/>
-      <c r="E551" t="inlineStr">
-        <is>
-          <t>-3.3%</t>
-        </is>
-      </c>
+      <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr"/>
       <c r="G551" t="inlineStr"/>
       <c r="H551" t="inlineStr">
@@ -18156,7 +18114,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -18166,7 +18124,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/10</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D552" t="inlineStr"/>
@@ -18175,14 +18133,14 @@
       <c r="G552" t="inlineStr"/>
       <c r="H552" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -18192,7 +18150,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/10</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
         </is>
       </c>
       <c r="D553" t="inlineStr"/>
@@ -18208,59 +18166,75 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D554" t="inlineStr"/>
-      <c r="E554" t="inlineStr"/>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr"/>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/10</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D555" t="inlineStr"/>
-      <c r="E555" t="inlineStr"/>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>8.9%</t>
+        </is>
+      </c>
       <c r="F555" t="inlineStr"/>
-      <c r="G555" t="inlineStr"/>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>9.5%</t>
+        </is>
+      </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -18270,7 +18244,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/10</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D556" t="inlineStr"/>
@@ -18286,41 +18260,41 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D557" t="inlineStr"/>
       <c r="E557" t="inlineStr">
         <is>
-          <t>$616.5B</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr">
         <is>
-          <t>$628.0B</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -18330,25 +18304,17 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM FinalNOV</t>
+          <t>5-Year Bond Auction</t>
         </is>
       </c>
       <c r="D558" t="inlineStr"/>
       <c r="E558" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F558" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G558" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>3.146%</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr"/>
+      <c r="G558" t="inlineStr"/>
       <c r="H558" t="inlineStr">
         <is>
           <t>3</t>
@@ -18356,25 +18322,21 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A559" t="inlineStr"/>
       <c r="B559" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>New Motor Vehicle SalesNOV</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D559" t="inlineStr"/>
       <c r="E559" t="inlineStr">
         <is>
-          <t>163.6K</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F559" t="inlineStr"/>
@@ -18386,35 +18348,27 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A560" t="inlineStr"/>
       <c r="B560" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM FinalNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D560" t="inlineStr"/>
       <c r="E560" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F560" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H560" t="inlineStr">
@@ -18424,285 +18378,241 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A561" t="inlineStr"/>
       <c r="B561" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D561" t="inlineStr"/>
       <c r="E561" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A562" t="inlineStr"/>
       <c r="B562" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A563" t="inlineStr"/>
       <c r="B563" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
-      <c r="E563" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G563" t="inlineStr"/>
       <c r="H563" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A564" t="inlineStr"/>
       <c r="B564" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>OPEC Monthly Report</t>
         </is>
       </c>
       <c r="D564" t="inlineStr"/>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G564" t="inlineStr"/>
       <c r="H564" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A565" t="inlineStr"/>
       <c r="B565" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>CPIDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D565" t="inlineStr"/>
       <c r="E565" t="inlineStr">
         <is>
-          <t>315.49</t>
+          <t>$-37.84B</t>
         </is>
       </c>
       <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr">
         <is>
-          <t>313.8</t>
+          <t>$ -23B</t>
         </is>
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A566" t="inlineStr"/>
       <c r="B566" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>CPI s.aDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D566" t="inlineStr"/>
       <c r="E566" t="inlineStr">
         <is>
-          <t>316.441</t>
+          <t>$32.11B</t>
         </is>
       </c>
       <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr">
         <is>
-          <t>317.4</t>
+          <t>$ 36B</t>
         </is>
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A567" t="inlineStr"/>
       <c r="B567" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D567" t="inlineStr"/>
       <c r="E567" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>$69.95B</t>
         </is>
       </c>
       <c r="F567" t="inlineStr"/>
-      <c r="G567" t="inlineStr"/>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>$ 59B</t>
+        </is>
+      </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
+          <t>Thursday January 16 2025</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr"/>
+      <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr"/>
       <c r="E568" t="inlineStr"/>
       <c r="F568" t="inlineStr"/>
       <c r="G568" t="inlineStr"/>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/10</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D569" t="inlineStr"/>
-      <c r="E569" t="inlineStr"/>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F569" t="inlineStr"/>
-      <c r="G569" t="inlineStr"/>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>3.30%</t>
+        </is>
+      </c>
       <c r="H569" t="inlineStr">
         <is>
           <t>2</t>
@@ -18712,17 +18622,17 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/10</t>
+          <t>Foreign Bond InvestmentJAN/11</t>
         </is>
       </c>
       <c r="D570" t="inlineStr"/>
@@ -18738,21 +18648,25 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D571" t="inlineStr"/>
-      <c r="E571" t="inlineStr"/>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F571" t="inlineStr"/>
       <c r="G571" t="inlineStr"/>
       <c r="H571" t="inlineStr">
@@ -18764,23 +18678,31 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D572" t="inlineStr"/>
-      <c r="E572" t="inlineStr"/>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr"/>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="H572" t="inlineStr">
         <is>
           <t>3</t>
@@ -18790,17 +18712,17 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/10</t>
+          <t>Stock Investment by ForeignersJAN/11</t>
         </is>
       </c>
       <c r="D573" t="inlineStr"/>
@@ -18816,109 +18738,129 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/10</t>
+          <t>RICS House Price BalanceDEC</t>
         </is>
       </c>
       <c r="D574" t="inlineStr"/>
-      <c r="E574" t="inlineStr"/>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
       <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr"/>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>17.0%</t>
+        </is>
+      </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D575" t="inlineStr"/>
-      <c r="E575" t="inlineStr"/>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F575" t="inlineStr"/>
-      <c r="G575" t="inlineStr"/>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
+          <t>Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D576" t="inlineStr"/>
-      <c r="E576" t="inlineStr"/>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>35.6K</t>
+        </is>
+      </c>
       <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr"/>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>25.1K</t>
+        </is>
+      </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D577" t="inlineStr"/>
       <c r="E577" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>52.6K</t>
         </is>
       </c>
       <c r="F577" t="inlineStr"/>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G577" t="inlineStr"/>
       <c r="H577" t="inlineStr">
         <is>
           <t>2</t>
@@ -18928,57 +18870,61 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D578" t="inlineStr"/>
       <c r="E578" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>-17.0K</t>
         </is>
       </c>
       <c r="F578" t="inlineStr"/>
-      <c r="G578" t="inlineStr">
-        <is>
-          <t>9.5%</t>
-        </is>
-      </c>
+      <c r="G578" t="inlineStr"/>
       <c r="H578" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D579" t="inlineStr"/>
-      <c r="E579" t="inlineStr"/>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
       <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr"/>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>66.8%</t>
+        </is>
+      </c>
       <c r="H579" t="inlineStr">
         <is>
           <t>3</t>
@@ -18988,31 +18934,27 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D580" t="inlineStr"/>
       <c r="E580" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G580" t="inlineStr"/>
       <c r="H580" t="inlineStr">
         <is>
           <t>2</t>
@@ -19022,23 +18964,23 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>5-Year Bond Auction</t>
+          <t>20-Year JGB Auction</t>
         </is>
       </c>
       <c r="D581" t="inlineStr"/>
       <c r="E581" t="inlineStr">
         <is>
-          <t>3.146%</t>
+          <t>1.879%</t>
         </is>
       </c>
       <c r="F581" t="inlineStr"/>
@@ -19050,21 +18992,25 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" t="inlineStr"/>
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>09:05 AM</t>
+        </is>
+      </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D582" t="inlineStr"/>
       <c r="E582" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.4796%</t>
         </is>
       </c>
       <c r="F582" t="inlineStr"/>
@@ -19072,620 +19018,6 @@
       <c r="H582" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr"/>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D583" t="inlineStr"/>
-      <c r="E583" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr"/>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D584" t="inlineStr"/>
-      <c r="E584" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr"/>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C585" t="inlineStr">
-        <is>
-          <t>Wholesale Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D585" t="inlineStr"/>
-      <c r="E585" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr"/>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C586" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D586" t="inlineStr"/>
-      <c r="E586" t="inlineStr"/>
-      <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr"/>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr"/>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>OP</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr">
-        <is>
-          <t>OPEC Monthly Report</t>
-        </is>
-      </c>
-      <c r="D587" t="inlineStr"/>
-      <c r="E587" t="inlineStr"/>
-      <c r="F587" t="inlineStr"/>
-      <c r="G587" t="inlineStr"/>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr"/>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D588" t="inlineStr"/>
-      <c r="E588" t="inlineStr">
-        <is>
-          <t>$-37.84B</t>
-        </is>
-      </c>
-      <c r="F588" t="inlineStr"/>
-      <c r="G588" t="inlineStr">
-        <is>
-          <t>$ -23B</t>
-        </is>
-      </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr"/>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr">
-        <is>
-          <t>ExportsDEC</t>
-        </is>
-      </c>
-      <c r="D589" t="inlineStr"/>
-      <c r="E589" t="inlineStr">
-        <is>
-          <t>$32.11B</t>
-        </is>
-      </c>
-      <c r="F589" t="inlineStr"/>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>$ 36B</t>
-        </is>
-      </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr"/>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr">
-        <is>
-          <t>ImportsDEC</t>
-        </is>
-      </c>
-      <c r="D590" t="inlineStr"/>
-      <c r="E590" t="inlineStr">
-        <is>
-          <t>$69.95B</t>
-        </is>
-      </c>
-      <c r="F590" t="inlineStr"/>
-      <c r="G590" t="inlineStr">
-        <is>
-          <t>$ 59B</t>
-        </is>
-      </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr"/>
-      <c r="C591" t="inlineStr"/>
-      <c r="D591" t="inlineStr"/>
-      <c r="E591" t="inlineStr"/>
-      <c r="F591" t="inlineStr"/>
-      <c r="G591" t="inlineStr"/>
-      <c r="H591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D592" t="inlineStr"/>
-      <c r="E592" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F592" t="inlineStr"/>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>3.30%</t>
-        </is>
-      </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C593" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
-        </is>
-      </c>
-      <c r="D593" t="inlineStr"/>
-      <c r="E593" t="inlineStr"/>
-      <c r="F593" t="inlineStr"/>
-      <c r="G593" t="inlineStr"/>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C594" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D594" t="inlineStr"/>
-      <c r="E594" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F594" t="inlineStr"/>
-      <c r="G594" t="inlineStr"/>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D595" t="inlineStr"/>
-      <c r="E595" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F595" t="inlineStr"/>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C596" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
-        </is>
-      </c>
-      <c r="D596" t="inlineStr"/>
-      <c r="E596" t="inlineStr"/>
-      <c r="F596" t="inlineStr"/>
-      <c r="G596" t="inlineStr"/>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>05:31 AM</t>
-        </is>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C597" t="inlineStr">
-        <is>
-          <t>RICS House Price BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D597" t="inlineStr"/>
-      <c r="E597" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="F597" t="inlineStr"/>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>17.0%</t>
-        </is>
-      </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C598" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D598" t="inlineStr"/>
-      <c r="E598" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F598" t="inlineStr"/>
-      <c r="G598" t="inlineStr">
-        <is>
-          <t>4.30%</t>
-        </is>
-      </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C599" t="inlineStr">
-        <is>
-          <t>Employment ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D599" t="inlineStr"/>
-      <c r="E599" t="inlineStr">
-        <is>
-          <t>35.6K</t>
-        </is>
-      </c>
-      <c r="F599" t="inlineStr"/>
-      <c r="G599" t="inlineStr">
-        <is>
-          <t>25.1K</t>
-        </is>
-      </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C600" t="inlineStr">
-        <is>
-          <t>Full Time Employment ChgDEC</t>
-        </is>
-      </c>
-      <c r="D600" t="inlineStr"/>
-      <c r="E600" t="inlineStr">
-        <is>
-          <t>52.6K</t>
-        </is>
-      </c>
-      <c r="F600" t="inlineStr"/>
-      <c r="G600" t="inlineStr"/>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C601" t="inlineStr">
-        <is>
-          <t>Part Time Employment ChgDEC</t>
-        </is>
-      </c>
-      <c r="D601" t="inlineStr"/>
-      <c r="E601" t="inlineStr">
-        <is>
-          <t>-17.0K</t>
-        </is>
-      </c>
-      <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr"/>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C602" t="inlineStr">
-        <is>
-          <t>Participation RateDEC</t>
-        </is>
-      </c>
-      <c r="D602" t="inlineStr"/>
-      <c r="E602" t="inlineStr">
-        <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="F602" t="inlineStr"/>
-      <c r="G602" t="inlineStr">
-        <is>
-          <t>66.8%</t>
-        </is>
-      </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C603" t="inlineStr">
-        <is>
-          <t>Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D603" t="inlineStr"/>
-      <c r="E603" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F603" t="inlineStr"/>
-      <c r="G603" t="inlineStr"/>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-16.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H621"/>
+  <dimension ref="A1:H598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13767,10 +13767,8 @@
           <t>4.9%</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H411" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -13801,10 +13799,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="413">
@@ -13835,10 +13831,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="414">
@@ -13869,10 +13863,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -13903,10 +13895,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="416">
@@ -13941,10 +13931,8 @@
           <t>6.8%</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H416" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -13979,10 +13967,8 @@
           <t>11.0K</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -14013,10 +13999,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H418" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="419">
@@ -14047,10 +14031,8 @@
           <t>1K</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -14081,10 +14063,8 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -14115,10 +14095,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="422">
@@ -14153,10 +14131,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -14191,10 +14167,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H423" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -14229,10 +14203,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H424" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -14267,10 +14239,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -14305,10 +14275,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H426" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -14339,10 +14307,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H427" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -14377,10 +14343,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -14411,10 +14375,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -14445,10 +14407,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -14483,10 +14443,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -14517,10 +14475,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -14551,10 +14507,8 @@
           <t>€22.5B</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -14589,10 +14543,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H434" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -14623,10 +14575,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -14657,10 +14607,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -14691,10 +14639,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -14725,10 +14671,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -14751,10 +14695,8 @@
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr"/>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -14781,10 +14723,8 @@
       </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr"/>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -14811,10 +14751,8 @@
       </c>
       <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr"/>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -14837,10 +14775,8 @@
       </c>
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr"/>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -14867,10 +14803,8 @@
           <t>4.7%</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="444">
@@ -14897,10 +14831,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="445">
@@ -14927,10 +14859,8 @@
         </is>
       </c>
       <c r="G445" t="inlineStr"/>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="446">
@@ -14957,10 +14887,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="447">
@@ -14987,10 +14915,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -15039,10 +14965,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H449" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -15073,10 +14997,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -15111,10 +15033,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H451" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="452">
@@ -15145,10 +15065,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H452" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -15175,10 +15093,8 @@
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H453" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -15205,30 +15121,44 @@
       </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H454" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr"/>
-      <c r="C455" t="inlineStr"/>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementDEC</t>
+        </is>
+      </c>
       <c r="D455" t="inlineStr"/>
-      <c r="E455" t="inlineStr"/>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>$-367B</t>
+        </is>
+      </c>
       <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr"/>
-      <c r="H455" t="inlineStr"/>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -15238,31 +15168,27 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G456" t="inlineStr"/>
       <c r="H456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -15272,36 +15198,32 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15312,41 +15234,49 @@
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr"/>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr"/>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H459" t="inlineStr">
         <is>
           <t>3</t>
@@ -15356,23 +15286,23 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
@@ -15386,65 +15316,57 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
+      <c r="G461" t="inlineStr"/>
       <c r="H461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
           <t>3</t>
@@ -15454,23 +15376,31 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr"/>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15480,23 +15410,31 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
-      <c r="E464" t="inlineStr"/>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr"/>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H464" t="inlineStr">
         <is>
           <t>3</t>
@@ -15506,17 +15444,17 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
@@ -15532,31 +15470,23 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E466" t="inlineStr"/>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
         <is>
           <t>3</t>
@@ -15566,23 +15496,31 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
-      <c r="E467" t="inlineStr"/>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H467" t="inlineStr">
         <is>
           <t>3</t>
@@ -15592,23 +15530,31 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
-      <c r="E468" t="inlineStr"/>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr"/>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H468" t="inlineStr">
         <is>
           <t>3</t>
@@ -15618,27 +15564,31 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr"/>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H469" t="inlineStr">
         <is>
           <t>3</t>
@@ -15648,23 +15598,23 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F470" t="inlineStr"/>
@@ -15678,49 +15628,53 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr"/>
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
@@ -15732,23 +15686,23 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr"/>
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>-15.4%</t>
-        </is>
-      </c>
+      <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
@@ -15758,23 +15712,23 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr"/>
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
-      <c r="E474" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
+      <c r="E474" t="inlineStr"/>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
@@ -15784,29 +15738,29 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr"/>
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
+      <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
           <t>3</t>
@@ -15814,21 +15768,25 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr"/>
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
@@ -15842,21 +15800,41 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr"/>
-      <c r="C477" t="inlineStr"/>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
       <c r="D477" t="inlineStr"/>
-      <c r="E477" t="inlineStr"/>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
       <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr"/>
-      <c r="H477" t="inlineStr"/>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -15866,145 +15844,149 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr"/>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
       <c r="H479" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr"/>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr">
         <is>
-          <t>¥1990.0B</t>
+          <t>146.4</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G482" t="inlineStr"/>
       <c r="H482" t="inlineStr">
         <is>
           <t>3</t>
@@ -16014,23 +15996,23 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
@@ -16044,27 +16026,31 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr"/>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H484" t="inlineStr">
         <is>
           <t>3</t>
@@ -16074,25 +16060,21 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
-      <c r="E485" t="inlineStr">
-        <is>
-          <t>0.734%</t>
-        </is>
-      </c>
+      <c r="E485" t="inlineStr"/>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr">
@@ -16104,31 +16086,27 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G486" t="inlineStr"/>
       <c r="H486" t="inlineStr">
         <is>
           <t>3</t>
@@ -16136,33 +16114,25 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A487" t="inlineStr"/>
       <c r="B487" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G487" t="inlineStr"/>
       <c r="H487" t="inlineStr">
         <is>
           <t>3</t>
@@ -16172,49 +16142,45 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="inlineStr"/>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr"/>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr"/>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
       <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
@@ -16224,29 +16190,29 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr">
         <is>
-          <t>10.2%</t>
+          <t>116.0%</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
@@ -16258,29 +16224,29 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
       <c r="E491" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
@@ -16292,29 +16258,29 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
@@ -16326,57 +16292,57 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>€-157.39B</t>
-        </is>
-      </c>
+      <c r="E493" t="inlineStr"/>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
       <c r="H493" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
       <c r="E494" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr"/>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>$ 2.8B</t>
+        </is>
+      </c>
       <c r="H494" t="inlineStr">
         <is>
           <t>2</t>
@@ -16386,23 +16352,23 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
@@ -16416,21 +16382,25 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
-      <c r="E496" t="inlineStr"/>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="inlineStr">
@@ -16442,21 +16412,25 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
-      <c r="E497" t="inlineStr"/>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr"/>
       <c r="H497" t="inlineStr">
@@ -16468,27 +16442,31 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr"/>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H498" t="inlineStr">
         <is>
           <t>3</t>
@@ -16498,7 +16476,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -16508,83 +16486,87 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr"/>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>101.7</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
@@ -16596,27 +16578,31 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr"/>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H502" t="inlineStr">
         <is>
           <t>2</t>
@@ -16626,63 +16612,63 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr">
         <is>
-          <t>146.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
@@ -16694,27 +16680,31 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr"/>
+      <c r="G505" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr"/>
       <c r="H505" t="inlineStr">
         <is>
           <t>3</t>
@@ -16724,27 +16714,31 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr"/>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H506" t="inlineStr">
         <is>
           <t>3</t>
@@ -16754,29 +16748,29 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
@@ -16788,23 +16782,31 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Input YoYDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
-      <c r="E508" t="inlineStr"/>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr"/>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="H508" t="inlineStr">
         <is>
           <t>3</t>
@@ -16814,27 +16816,31 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>08:35 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Output MoMDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
-      <c r="G509" t="inlineStr"/>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H509" t="inlineStr">
         <is>
           <t>3</t>
@@ -16842,25 +16848,33 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr"/>
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>PPI Output YoYDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr"/>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H510" t="inlineStr">
         <is>
           <t>3</t>
@@ -16870,43 +16884,59 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr"/>
-      <c r="C511" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Retail Price Index MoMDEC</t>
+        </is>
+      </c>
       <c r="D511" t="inlineStr"/>
-      <c r="E511" t="inlineStr"/>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr"/>
-      <c r="H511" t="inlineStr"/>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
       <c r="E512" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
@@ -16918,99 +16948,95 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr">
         <is>
-          <t>116.0%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
       <c r="E514" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+      <c r="G515" t="inlineStr"/>
       <c r="H515" t="inlineStr">
         <is>
           <t>3</t>
@@ -17020,87 +17046,99 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
-      <c r="E516" t="inlineStr"/>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr"/>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
       <c r="E517" t="inlineStr">
         <is>
-          <t>$4.42B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>$ 2.8B</t>
-        </is>
-      </c>
+      <c r="G517" t="inlineStr"/>
       <c r="H517" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>9.14%</t>
-        </is>
-      </c>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H518" t="inlineStr">
         <is>
           <t>3</t>
@@ -17110,27 +17148,35 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H519" t="inlineStr">
         <is>
           <t>3</t>
@@ -17140,27 +17186,35 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Machine Tool Orders YoYDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H520" t="inlineStr">
         <is>
           <t>3</t>
@@ -17170,29 +17224,29 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>WPI Inflation YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H521" t="inlineStr">
@@ -17204,7 +17258,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -17214,55 +17268,51 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Wholesale Prices MoMDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G523" t="inlineStr"/>
       <c r="H523" t="inlineStr">
         <is>
           <t>2</t>
@@ -17272,41 +17322,37 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G524" t="inlineStr"/>
       <c r="H524" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -17316,89 +17362,77 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>10-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.332%</t>
         </is>
       </c>
       <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G525" t="inlineStr"/>
       <c r="H525" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>30-Year Bund Auction</t>
         </is>
       </c>
       <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.55%</t>
         </is>
       </c>
       <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G526" t="inlineStr"/>
       <c r="H526" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Gross Fixed Investment MoMOCT</t>
         </is>
       </c>
       <c r="D527" t="inlineStr"/>
       <c r="E527" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G527" t="inlineStr"/>
       <c r="H527" t="inlineStr">
         <is>
           <t>3</t>
@@ -17408,31 +17442,27 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>PPI Core Output MoMDEC</t>
+          <t>Gross Fixed Investment YoYOCT</t>
         </is>
       </c>
       <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-3.3%</t>
         </is>
       </c>
       <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G528" t="inlineStr"/>
       <c r="H528" t="inlineStr">
         <is>
           <t>3</t>
@@ -17442,65 +17472,49 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>PPI Core Output YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/10</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
-      <c r="E529" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E529" t="inlineStr"/>
       <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="G529" t="inlineStr"/>
       <c r="H529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>PPI Input MoMDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/10</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="G530" t="inlineStr"/>
       <c r="H530" t="inlineStr">
         <is>
           <t>3</t>
@@ -17510,31 +17524,23 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>PPI Input YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/10</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="G531" t="inlineStr"/>
       <c r="H531" t="inlineStr">
         <is>
           <t>3</t>
@@ -17544,31 +17550,23 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>PPI Output MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/10</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
-      <c r="E532" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E532" t="inlineStr"/>
       <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G532" t="inlineStr"/>
       <c r="H532" t="inlineStr">
         <is>
           <t>3</t>
@@ -17578,31 +17576,23 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>PPI Output YoYDEC</t>
+          <t>MBA Purchase IndexJAN/10</t>
         </is>
       </c>
       <c r="D533" t="inlineStr"/>
-      <c r="E533" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
+      <c r="E533" t="inlineStr"/>
       <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G533" t="inlineStr"/>
       <c r="H533" t="inlineStr">
         <is>
           <t>3</t>
@@ -17612,27 +17602,31 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Retail Price Index MoMDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D534" t="inlineStr"/>
       <c r="E534" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$616.5B</t>
         </is>
       </c>
       <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr"/>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>$628.0B</t>
+        </is>
+      </c>
       <c r="H534" t="inlineStr">
         <is>
           <t>3</t>
@@ -17642,29 +17636,33 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Retail Price Index YoYDEC</t>
+          <t>Manufacturing Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
       <c r="E535" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F535" t="inlineStr"/>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
@@ -17676,369 +17674,349 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>New Motor Vehicle SalesNOV</t>
         </is>
       </c>
       <c r="D536" t="inlineStr"/>
       <c r="E536" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>163.6K</t>
         </is>
       </c>
       <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G536" t="inlineStr"/>
       <c r="H536" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Wholesale Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F537" t="inlineStr"/>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr"/>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D539" t="inlineStr"/>
       <c r="E539" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D540" t="inlineStr"/>
       <c r="E540" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr"/>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F541" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>CPIDEC</t>
         </is>
       </c>
       <c r="D542" t="inlineStr"/>
       <c r="E542" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F542" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>315.49</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>313.8</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>CPI s.aDEC</t>
         </is>
       </c>
       <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F543" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+          <t>316.441</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>317.4</t>
         </is>
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>NY Empire State Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G544" t="inlineStr"/>
       <c r="H544" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E545" t="inlineStr"/>
       <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="G545" t="inlineStr"/>
       <c r="H545" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>EIA Gasoline Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D546" t="inlineStr"/>
-      <c r="E546" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E546" t="inlineStr"/>
       <c r="F546" t="inlineStr"/>
       <c r="G546" t="inlineStr"/>
       <c r="H546" t="inlineStr">
@@ -18050,25 +18028,21 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>EIA Crude Oil Imports ChangeJAN/10</t>
         </is>
       </c>
       <c r="D547" t="inlineStr"/>
-      <c r="E547" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
       <c r="G547" t="inlineStr"/>
       <c r="H547" t="inlineStr">
@@ -18080,25 +18054,21 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>10-Year Treasury Gilt Auction</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
-      <c r="E548" t="inlineStr">
-        <is>
-          <t>4.332%</t>
-        </is>
-      </c>
+      <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr"/>
       <c r="H548" t="inlineStr">
@@ -18110,25 +18080,21 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>30-Year Bund Auction</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
-      <c r="E549" t="inlineStr">
-        <is>
-          <t>2.55%</t>
-        </is>
-      </c>
+      <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr"/>
       <c r="H549" t="inlineStr">
@@ -18140,25 +18106,21 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMOCT</t>
+          <t>EIA Distillate Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D550" t="inlineStr"/>
-      <c r="E550" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
+      <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
       <c r="G550" t="inlineStr"/>
       <c r="H550" t="inlineStr">
@@ -18170,25 +18132,21 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYOCT</t>
+          <t>EIA Gasoline Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D551" t="inlineStr"/>
-      <c r="E551" t="inlineStr">
-        <is>
-          <t>-3.3%</t>
-        </is>
-      </c>
+      <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr"/>
       <c r="G551" t="inlineStr"/>
       <c r="H551" t="inlineStr">
@@ -18200,7 +18158,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -18210,7 +18168,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/10</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D552" t="inlineStr"/>
@@ -18219,14 +18177,14 @@
       <c r="G552" t="inlineStr"/>
       <c r="H552" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -18236,7 +18194,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/10</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
         </is>
       </c>
       <c r="D553" t="inlineStr"/>
@@ -18252,59 +18210,75 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D554" t="inlineStr"/>
-      <c r="E554" t="inlineStr"/>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr"/>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/10</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D555" t="inlineStr"/>
-      <c r="E555" t="inlineStr"/>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>8.9%</t>
+        </is>
+      </c>
       <c r="F555" t="inlineStr"/>
-      <c r="G555" t="inlineStr"/>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>9.5%</t>
+        </is>
+      </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -18314,7 +18288,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/10</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D556" t="inlineStr"/>
@@ -18330,41 +18304,41 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D557" t="inlineStr"/>
       <c r="E557" t="inlineStr">
         <is>
-          <t>$616.5B</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr">
         <is>
-          <t>$628.0B</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -18374,25 +18348,17 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM FinalNOV</t>
+          <t>5-Year Bond Auction</t>
         </is>
       </c>
       <c r="D558" t="inlineStr"/>
       <c r="E558" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F558" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G558" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>3.146%</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr"/>
+      <c r="G558" t="inlineStr"/>
       <c r="H558" t="inlineStr">
         <is>
           <t>3</t>
@@ -18400,25 +18366,21 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A559" t="inlineStr"/>
       <c r="B559" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>New Motor Vehicle SalesNOV</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D559" t="inlineStr"/>
       <c r="E559" t="inlineStr">
         <is>
-          <t>163.6K</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F559" t="inlineStr"/>
@@ -18430,35 +18392,27 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A560" t="inlineStr"/>
       <c r="B560" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM FinalNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D560" t="inlineStr"/>
       <c r="E560" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F560" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H560" t="inlineStr">
@@ -18468,285 +18422,241 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A561" t="inlineStr"/>
       <c r="B561" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D561" t="inlineStr"/>
       <c r="E561" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A562" t="inlineStr"/>
       <c r="B562" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A563" t="inlineStr"/>
       <c r="B563" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
-      <c r="E563" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G563" t="inlineStr"/>
       <c r="H563" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A564" t="inlineStr"/>
       <c r="B564" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>OPEC Monthly Report</t>
         </is>
       </c>
       <c r="D564" t="inlineStr"/>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G564" t="inlineStr"/>
       <c r="H564" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A565" t="inlineStr"/>
       <c r="B565" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>CPIDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D565" t="inlineStr"/>
       <c r="E565" t="inlineStr">
         <is>
-          <t>315.49</t>
+          <t>$-37.84B</t>
         </is>
       </c>
       <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr">
         <is>
-          <t>313.8</t>
+          <t>$ -23B</t>
         </is>
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A566" t="inlineStr"/>
       <c r="B566" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>CPI s.aDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D566" t="inlineStr"/>
       <c r="E566" t="inlineStr">
         <is>
-          <t>316.441</t>
+          <t>$32.11B</t>
         </is>
       </c>
       <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr">
         <is>
-          <t>317.4</t>
+          <t>$ 36B</t>
         </is>
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A567" t="inlineStr"/>
       <c r="B567" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D567" t="inlineStr"/>
       <c r="E567" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>$69.95B</t>
         </is>
       </c>
       <c r="F567" t="inlineStr"/>
-      <c r="G567" t="inlineStr"/>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>$ 59B</t>
+        </is>
+      </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
+          <t>Thursday January 16 2025</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr"/>
+      <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr"/>
       <c r="E568" t="inlineStr"/>
       <c r="F568" t="inlineStr"/>
       <c r="G568" t="inlineStr"/>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/10</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D569" t="inlineStr"/>
-      <c r="E569" t="inlineStr"/>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F569" t="inlineStr"/>
-      <c r="G569" t="inlineStr"/>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>3.30%</t>
+        </is>
+      </c>
       <c r="H569" t="inlineStr">
         <is>
           <t>2</t>
@@ -18756,17 +18666,17 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/10</t>
+          <t>Foreign Bond InvestmentJAN/11</t>
         </is>
       </c>
       <c r="D570" t="inlineStr"/>
@@ -18782,21 +18692,25 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D571" t="inlineStr"/>
-      <c r="E571" t="inlineStr"/>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F571" t="inlineStr"/>
       <c r="G571" t="inlineStr"/>
       <c r="H571" t="inlineStr">
@@ -18808,23 +18722,31 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D572" t="inlineStr"/>
-      <c r="E572" t="inlineStr"/>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr"/>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="H572" t="inlineStr">
         <is>
           <t>3</t>
@@ -18834,17 +18756,17 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/10</t>
+          <t>Stock Investment by ForeignersJAN/11</t>
         </is>
       </c>
       <c r="D573" t="inlineStr"/>
@@ -18860,109 +18782,129 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/10</t>
+          <t>RICS House Price BalanceDEC</t>
         </is>
       </c>
       <c r="D574" t="inlineStr"/>
-      <c r="E574" t="inlineStr"/>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
       <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr"/>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>17.0%</t>
+        </is>
+      </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D575" t="inlineStr"/>
-      <c r="E575" t="inlineStr"/>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F575" t="inlineStr"/>
-      <c r="G575" t="inlineStr"/>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
+          <t>Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D576" t="inlineStr"/>
-      <c r="E576" t="inlineStr"/>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>35.6K</t>
+        </is>
+      </c>
       <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr"/>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>25.1K</t>
+        </is>
+      </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D577" t="inlineStr"/>
       <c r="E577" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>52.6K</t>
         </is>
       </c>
       <c r="F577" t="inlineStr"/>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G577" t="inlineStr"/>
       <c r="H577" t="inlineStr">
         <is>
           <t>2</t>
@@ -18972,57 +18914,61 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D578" t="inlineStr"/>
       <c r="E578" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>-17.0K</t>
         </is>
       </c>
       <c r="F578" t="inlineStr"/>
-      <c r="G578" t="inlineStr">
-        <is>
-          <t>9.5%</t>
-        </is>
-      </c>
+      <c r="G578" t="inlineStr"/>
       <c r="H578" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D579" t="inlineStr"/>
-      <c r="E579" t="inlineStr"/>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
       <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr"/>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>66.8%</t>
+        </is>
+      </c>
       <c r="H579" t="inlineStr">
         <is>
           <t>3</t>
@@ -19032,31 +18978,27 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D580" t="inlineStr"/>
       <c r="E580" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G580" t="inlineStr"/>
       <c r="H580" t="inlineStr">
         <is>
           <t>2</t>
@@ -19066,23 +19008,23 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>5-Year Bond Auction</t>
+          <t>20-Year JGB Auction</t>
         </is>
       </c>
       <c r="D581" t="inlineStr"/>
       <c r="E581" t="inlineStr">
         <is>
-          <t>3.146%</t>
+          <t>1.879%</t>
         </is>
       </c>
       <c r="F581" t="inlineStr"/>
@@ -19094,21 +19036,25 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" t="inlineStr"/>
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>09:05 AM</t>
+        </is>
+      </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D582" t="inlineStr"/>
       <c r="E582" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.4796%</t>
         </is>
       </c>
       <c r="F582" t="inlineStr"/>
@@ -19120,29 +19066,29 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" t="inlineStr"/>
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D583" t="inlineStr"/>
       <c r="E583" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.02%</t>
         </is>
       </c>
       <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G583" t="inlineStr"/>
       <c r="H583" t="inlineStr">
         <is>
           <t>3</t>
@@ -19150,241 +19096,297 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" t="inlineStr"/>
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D584" t="inlineStr"/>
       <c r="E584" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F584" t="inlineStr"/>
       <c r="G584" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="585">
-      <c r="A585" t="inlineStr"/>
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D585" t="inlineStr"/>
       <c r="E585" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F585" t="inlineStr"/>
       <c r="G585" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H585" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr"/>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr"/>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="586">
-      <c r="A586" t="inlineStr"/>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C586" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D586" t="inlineStr"/>
-      <c r="E586" t="inlineStr"/>
-      <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr"/>
-      <c r="H586" t="inlineStr">
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr"/>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr"/>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="587">
-      <c r="A587" t="inlineStr"/>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>OP</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr">
-        <is>
-          <t>OPEC Monthly Report</t>
-        </is>
-      </c>
-      <c r="D587" t="inlineStr"/>
-      <c r="E587" t="inlineStr"/>
-      <c r="F587" t="inlineStr"/>
-      <c r="G587" t="inlineStr"/>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="588">
-      <c r="A588" t="inlineStr"/>
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D588" t="inlineStr"/>
       <c r="E588" t="inlineStr">
         <is>
-          <t>$-37.84B</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F588" t="inlineStr"/>
       <c r="G588" t="inlineStr">
         <is>
-          <t>$ -23B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="589">
-      <c r="A589" t="inlineStr"/>
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>GDP YoYNOV</t>
         </is>
       </c>
       <c r="D589" t="inlineStr"/>
       <c r="E589" t="inlineStr">
         <is>
-          <t>$32.11B</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F589" t="inlineStr"/>
       <c r="G589" t="inlineStr">
         <is>
-          <t>$ 36B</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="590">
-      <c r="A590" t="inlineStr"/>
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>GDP 3-Month AvgNOV</t>
         </is>
       </c>
       <c r="D590" t="inlineStr"/>
       <c r="E590" t="inlineStr">
         <is>
-          <t>$69.95B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F590" t="inlineStr"/>
       <c r="G590" t="inlineStr">
         <is>
-          <t>$ 59B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr"/>
-      <c r="C591" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Goods Trade BalanceNOV</t>
+        </is>
+      </c>
       <c r="D591" t="inlineStr"/>
-      <c r="E591" t="inlineStr"/>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>£-18.97B</t>
+        </is>
+      </c>
       <c r="F591" t="inlineStr"/>
       <c r="G591" t="inlineStr"/>
-      <c r="H591" t="inlineStr"/>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Goods Trade Balance Non-EUNOV</t>
         </is>
       </c>
       <c r="D592" t="inlineStr"/>
       <c r="E592" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>£-7.28B</t>
         </is>
       </c>
       <c r="F592" t="inlineStr"/>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>3.30%</t>
-        </is>
-      </c>
+      <c r="G592" t="inlineStr"/>
       <c r="H592" t="inlineStr">
         <is>
           <t>2</t>
@@ -19394,87 +19396,87 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D593" t="inlineStr"/>
-      <c r="E593" t="inlineStr"/>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="inlineStr"/>
       <c r="H593" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D594" t="inlineStr"/>
       <c r="E594" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F594" t="inlineStr"/>
       <c r="G594" t="inlineStr"/>
       <c r="H594" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D595" t="inlineStr"/>
       <c r="E595" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>£-3.72B</t>
         </is>
       </c>
       <c r="F595" t="inlineStr"/>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G595" t="inlineStr"/>
       <c r="H595" t="inlineStr">
         <is>
           <t>3</t>
@@ -19484,23 +19486,31 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D596" t="inlineStr"/>
-      <c r="E596" t="inlineStr"/>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F596" t="inlineStr"/>
-      <c r="G596" t="inlineStr"/>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H596" t="inlineStr">
         <is>
           <t>3</t>
@@ -19510,7 +19520,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -19520,786 +19530,48 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>RICS House Price BalanceDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D597" t="inlineStr"/>
       <c r="E597" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F597" t="inlineStr"/>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>17.0%</t>
-        </is>
-      </c>
+      <c r="G597" t="inlineStr"/>
       <c r="H597" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Manufacturing Production YoYNOV</t>
         </is>
       </c>
       <c r="D598" t="inlineStr"/>
       <c r="E598" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F598" t="inlineStr"/>
-      <c r="G598" t="inlineStr">
-        <is>
-          <t>4.30%</t>
-        </is>
-      </c>
+      <c r="G598" t="inlineStr"/>
       <c r="H598" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C599" t="inlineStr">
-        <is>
-          <t>Employment ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D599" t="inlineStr"/>
-      <c r="E599" t="inlineStr">
-        <is>
-          <t>35.6K</t>
-        </is>
-      </c>
-      <c r="F599" t="inlineStr"/>
-      <c r="G599" t="inlineStr">
-        <is>
-          <t>25.1K</t>
-        </is>
-      </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C600" t="inlineStr">
-        <is>
-          <t>Full Time Employment ChgDEC</t>
-        </is>
-      </c>
-      <c r="D600" t="inlineStr"/>
-      <c r="E600" t="inlineStr">
-        <is>
-          <t>52.6K</t>
-        </is>
-      </c>
-      <c r="F600" t="inlineStr"/>
-      <c r="G600" t="inlineStr"/>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C601" t="inlineStr">
-        <is>
-          <t>Part Time Employment ChgDEC</t>
-        </is>
-      </c>
-      <c r="D601" t="inlineStr"/>
-      <c r="E601" t="inlineStr">
-        <is>
-          <t>-17.0K</t>
-        </is>
-      </c>
-      <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr"/>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C602" t="inlineStr">
-        <is>
-          <t>Participation RateDEC</t>
-        </is>
-      </c>
-      <c r="D602" t="inlineStr"/>
-      <c r="E602" t="inlineStr">
-        <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="F602" t="inlineStr"/>
-      <c r="G602" t="inlineStr">
-        <is>
-          <t>66.8%</t>
-        </is>
-      </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C603" t="inlineStr">
-        <is>
-          <t>Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D603" t="inlineStr"/>
-      <c r="E603" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F603" t="inlineStr"/>
-      <c r="G603" t="inlineStr"/>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C604" t="inlineStr">
-        <is>
-          <t>20-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D604" t="inlineStr"/>
-      <c r="E604" t="inlineStr">
-        <is>
-          <t>1.879%</t>
-        </is>
-      </c>
-      <c r="F604" t="inlineStr"/>
-      <c r="G604" t="inlineStr"/>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C605" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D605" t="inlineStr"/>
-      <c r="E605" t="inlineStr">
-        <is>
-          <t>0.4796%</t>
-        </is>
-      </c>
-      <c r="F605" t="inlineStr"/>
-      <c r="G605" t="inlineStr"/>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C606" t="inlineStr">
-        <is>
-          <t>6-Month T-Bill Auction</t>
-        </is>
-      </c>
-      <c r="D606" t="inlineStr"/>
-      <c r="E606" t="inlineStr">
-        <is>
-          <t>3.02%</t>
-        </is>
-      </c>
-      <c r="F606" t="inlineStr"/>
-      <c r="G606" t="inlineStr"/>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C607" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D607" t="inlineStr"/>
-      <c r="E607" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D608" t="inlineStr"/>
-      <c r="E608" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F608" t="inlineStr"/>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C609" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D609" t="inlineStr"/>
-      <c r="E609" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F609" t="inlineStr"/>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C610" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D610" t="inlineStr"/>
-      <c r="E610" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F610" t="inlineStr"/>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C611" t="inlineStr">
-        <is>
-          <t>GDP MoMNOV</t>
-        </is>
-      </c>
-      <c r="D611" t="inlineStr"/>
-      <c r="E611" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F611" t="inlineStr"/>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr">
-        <is>
-          <t>GDP YoYNOV</t>
-        </is>
-      </c>
-      <c r="D612" t="inlineStr"/>
-      <c r="E612" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F612" t="inlineStr"/>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr">
-        <is>
-          <t>GDP 3-Month AvgNOV</t>
-        </is>
-      </c>
-      <c r="D613" t="inlineStr"/>
-      <c r="E613" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C614" t="inlineStr">
-        <is>
-          <t>Goods Trade BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D614" t="inlineStr"/>
-      <c r="E614" t="inlineStr">
-        <is>
-          <t>£-18.97B</t>
-        </is>
-      </c>
-      <c r="F614" t="inlineStr"/>
-      <c r="G614" t="inlineStr"/>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C615" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance Non-EUNOV</t>
-        </is>
-      </c>
-      <c r="D615" t="inlineStr"/>
-      <c r="E615" t="inlineStr">
-        <is>
-          <t>£-7.28B</t>
-        </is>
-      </c>
-      <c r="F615" t="inlineStr"/>
-      <c r="G615" t="inlineStr"/>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C616" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D616" t="inlineStr"/>
-      <c r="E616" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F616" t="inlineStr"/>
-      <c r="G616" t="inlineStr"/>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D617" t="inlineStr"/>
-      <c r="E617" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F617" t="inlineStr"/>
-      <c r="G617" t="inlineStr"/>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr">
-        <is>
-          <t>Balance of TradeNOV</t>
-        </is>
-      </c>
-      <c r="D618" t="inlineStr"/>
-      <c r="E618" t="inlineStr">
-        <is>
-          <t>£-3.72B</t>
-        </is>
-      </c>
-      <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr"/>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
-      <c r="D619" t="inlineStr"/>
-      <c r="E619" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C620" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D620" t="inlineStr"/>
-      <c r="E620" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr"/>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C621" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D621" t="inlineStr"/>
-      <c r="E621" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr"/>
-      <c r="H621" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-16.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-16.xlsx
@@ -14922,127 +14922,113 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr"/>
-      <c r="C448" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
+        </is>
+      </c>
       <c r="D448" t="inlineStr"/>
-      <c r="E448" t="inlineStr"/>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>1.98B</t>
+        </is>
+      </c>
       <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr"/>
-      <c r="H448" t="inlineStr"/>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A449" t="inlineStr"/>
       <c r="B449" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G449" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H449" t="n">
-        <v>1</v>
+          <t>2.53%</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr"/>
+      <c r="G449" t="inlineStr"/>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A450" t="inlineStr"/>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F450" t="inlineStr"/>
-      <c r="G450" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H450" t="n">
-        <v>2</v>
+      <c r="G450" t="inlineStr"/>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A451" t="inlineStr"/>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D451" t="inlineStr"/>
       <c r="E451" t="inlineStr">
         <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="F451" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H451" t="n">
-        <v>2</v>
+          <t>5.3%</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A452" t="inlineStr"/>
       <c r="B452" t="inlineStr">
         <is>
           <t>CN</t>
@@ -15050,80 +15036,66 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr">
         <is>
-          <t>$97.44B</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr">
         <is>
-          <t>$ 85B</t>
-        </is>
-      </c>
-      <c r="H452" t="n">
-        <v>1</v>
+          <t>6.4%</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A453" t="inlineStr"/>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr"/>
-      <c r="H453" t="n">
-        <v>1</v>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>Imports YoYDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr"/>
+      <c r="C454" t="inlineStr"/>
       <c r="D454" t="inlineStr"/>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>-3.9%</t>
-        </is>
-      </c>
+      <c r="E454" t="inlineStr"/>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
-      <c r="H454" t="n">
-        <v>1</v>
-      </c>
+      <c r="H454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
